--- a/finalproject/FlatWorldConnect.xlsx
+++ b/finalproject/FlatWorldConnect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\flatworld\training\finalproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D5EC59-E83D-4850-946B-BA24409AC368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD48E3-3874-4B73-AAA0-A3F061D5FA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>

--- a/finalproject/FlatWorldConnect.xlsx
+++ b/finalproject/FlatWorldConnect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\flatworld\training\finalproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD48E3-3874-4B73-AAA0-A3F061D5FA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52774864-A09E-4E67-9721-3E06FE672F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Registration" sheetId="3" r:id="rId3"/>
     <sheet name="Login" sheetId="4" r:id="rId4"/>
     <sheet name="Adminstrator" sheetId="5" r:id="rId5"/>
-    <sheet name="TaskAllocation" sheetId="6" r:id="rId6"/>
+    <sheet name="Vendor" sheetId="7" r:id="rId6"/>
+    <sheet name="TaskAllocation" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>Introduction to Flatworld Connect</t>
   </si>
@@ -306,6 +307,72 @@
   <si>
     <t>Projects - Create, List</t>
   </si>
+  <si>
+    <t>Registration as a vendor</t>
+  </si>
+  <si>
+    <t>Adminstrator to create Project Manager under Create Users sub menu</t>
+  </si>
+  <si>
+    <t>Following page to be displayed after Vendor Login</t>
+  </si>
+  <si>
+    <t>On click of Manage project following submenu to be displayed</t>
+  </si>
+  <si>
+    <t>Project Requirement</t>
+  </si>
+  <si>
+    <t>On click of Project Requirement</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Web App Development using .NET,C#</t>
+  </si>
+  <si>
+    <t>Ravi Kumar</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Web App Development for health care</t>
+  </si>
+  <si>
+    <t>Mobile App Development for health care</t>
+  </si>
+  <si>
+    <t>Android mobile app</t>
+  </si>
+  <si>
+    <t>Proposal Submission Date</t>
+  </si>
+  <si>
+    <t>On click of Link on project Name</t>
+  </si>
+  <si>
+    <t>Quote per resource per month</t>
+  </si>
+  <si>
+    <t>Total Quote</t>
+  </si>
+  <si>
+    <t>Junior Developer</t>
+  </si>
+  <si>
+    <t>.Net C#</t>
+  </si>
+  <si>
+    <t>Vendor - Project Requirement</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +432,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +477,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919EF85-943E-4A52-860F-19E3118E38D1}">
   <dimension ref="D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75C1E24-F88A-450F-8E3E-C8AC1CD4E36E}">
   <dimension ref="E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55E032E-FF14-46E1-9E7A-CCA246AE428C}">
   <dimension ref="C1:M99"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1380,11 +1461,209 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C79F4F-9E20-452B-A72A-B015789A23DE}">
+  <dimension ref="E1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="26.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="F12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="9">
+        <v>44896</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44650</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="9">
+        <v>44875</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="F13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44896</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44650</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="9">
+        <v>44875</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="9">
+        <v>44896</v>
+      </c>
+      <c r="K17" s="9">
+        <v>44650</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>40000</v>
+      </c>
+      <c r="N17">
+        <v>240000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B26AC72-9D2D-452F-9AE1-0FA7B056CFC0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,6 +1727,39 @@
         <v>82</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44873</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44873</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44873</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
